--- a/Excel/046_Exercicios_Funcoes_Importantes.xlsx
+++ b/Excel/046_Exercicios_Funcoes_Importantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F6DD0A-D358-4B0D-9C1E-48CB13DC4545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E10998F-44A2-44C6-B817-808BE604B878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="897" firstSheet="4" activeTab="8" xr2:uid="{19F902EB-DB2F-42BB-A2D1-6D00D52FD232}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="897" firstSheet="6" activeTab="10" xr2:uid="{19F902EB-DB2F-42BB-A2D1-6D00D52FD232}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor PROCV" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Aluno ÍNDICE CORRESP" sheetId="16" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Aluno ÍNDICE CORRESP'!$A$15:$D$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Aluno ÍNDICE CORRESP'!$B$15:$D$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Aluno SOMASES'!$B$8:$D$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Aluno Valor data + Recente'!$B$7:$D$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Professor ÍNDICE CORRESP'!$A$15:$D$52</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="90">
   <si>
     <t>Lista</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>Sapato Social</t>
-  </si>
-  <si>
-    <t>Data Inicio</t>
   </si>
   <si>
     <t>Desafio</t>
@@ -337,7 +334,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +425,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -473,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -578,26 +583,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -664,9 +656,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -680,10 +669,8 @@
     <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -710,15 +697,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="10" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1059,18 +1057,18 @@
   <sheetData>
     <row r="3" spans="2:19" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" s="44" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" s="44" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="S4" s="41" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="30.9" x14ac:dyDescent="0.8">
@@ -1078,7 +1076,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>18</v>
@@ -1088,7 +1086,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="30.9" x14ac:dyDescent="0.8">
@@ -1098,7 +1096,7 @@
       <c r="C7" s="10">
         <v>10</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="40">
         <f>VLOOKUP(B7,G:H,2,0)*C7</f>
         <v>120</v>
       </c>
@@ -1118,7 +1116,7 @@
       <c r="C8" s="8">
         <v>20</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="40">
         <f>VLOOKUP(B8,G:H,2,0)*C8</f>
         <v>700</v>
       </c>
@@ -1141,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E9ADC5-C202-4892-B7B4-3DB9F8C58164}">
   <dimension ref="B3:Y45"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1156,7 +1154,7 @@
   <sheetData>
     <row r="3" spans="2:25" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3"/>
       <c r="F3" s="1"/>
@@ -1184,21 +1182,21 @@
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Y5" s="44" t="s">
-        <v>83</v>
+      <c r="Y5" s="41" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="26.15" x14ac:dyDescent="0.7">
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="K6" s="54" t="s">
+      <c r="I6" s="53"/>
+      <c r="K6" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="55"/>
-      <c r="Y6" s="44" t="s">
-        <v>82</v>
+      <c r="L6" s="53"/>
+      <c r="Y6" s="41" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="26.15" x14ac:dyDescent="0.7">
@@ -1214,8 +1212,8 @@
       <c r="L7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="44" t="s">
-        <v>84</v>
+      <c r="Y7" s="41" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:25" ht="26.15" x14ac:dyDescent="0.7">
@@ -1249,8 +1247,8 @@
       <c r="M8" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="Y8" s="44" t="s">
-        <v>85</v>
+      <c r="Y8" s="41" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="26.15" x14ac:dyDescent="0.7">
@@ -1260,26 +1258,38 @@
       <c r="C9" s="18">
         <v>44927</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="39">
         <v>85</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="32">
+      <c r="H9" s="29">
+        <f>SUMIFS($D$9:$D$45,$B$9:$B$45,$G9,$C$9:$C$45,"&gt;=01/01/2023",$C$9:$C$45,"&lt;=15/01/2023")</f>
+        <v>136</v>
+      </c>
+      <c r="I9" s="29">
+        <f>SUMIFS($D$9:$D$45,$B$9:$B$45,$G9,$C$9:$C$45,"&gt;=16/1/2023",$C$9:$C$45,"&lt;=31/01/2023")</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="31">
         <f>H9+I9</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="32">
+        <v>136</v>
+      </c>
+      <c r="K9" s="29">
+        <f>SUMIFS($D$9:$D$45,$B$9:$B$45,$G9,$C$9:$C$45,"&gt;=1/02/2023",$C$9:$C$45,"&lt;=15/02/2023")</f>
+        <v>19</v>
+      </c>
+      <c r="L9" s="29">
+        <f>SUMIFS($D$9:$D$45,$B$9:$B$45,$G9,$C$9:$C$45,"&gt;=16/02/2023",$C$9:$C$45,"&lt;=28/02/2023")</f>
+        <v>43</v>
+      </c>
+      <c r="M9" s="31">
         <f>K9+L9</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="44" t="s">
-        <v>86</v>
+        <v>62</v>
+      </c>
+      <c r="Y9" s="41" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="23.15" x14ac:dyDescent="0.6">
@@ -1289,23 +1299,35 @@
       <c r="C10" s="18">
         <v>44928</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="39">
         <v>37</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="32">
-        <f t="shared" ref="J10:J16" si="0">H10+I10</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="32">
-        <f t="shared" ref="M10:M16" si="1">K10+L10</f>
-        <v>0</v>
+      <c r="H10" s="29">
+        <f t="shared" ref="H10:H16" si="0">SUMIFS($D$9:$D$45,$B$9:$B$45,$G10,$C$9:$C$45,"&gt;=01/01/2023",$C$9:$C$45,"&lt;=15/01/2023")</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="29">
+        <f t="shared" ref="I10:I16" si="1">SUMIFS($D$9:$D$45,$B$9:$B$45,$G10,$C$9:$C$45,"&gt;=16/1/2023",$C$9:$C$45,"&lt;=31/01/2023")</f>
+        <v>13</v>
+      </c>
+      <c r="J10" s="31">
+        <f t="shared" ref="J10:J16" si="2">H10+I10</f>
+        <v>13</v>
+      </c>
+      <c r="K10" s="29">
+        <f t="shared" ref="K10:K16" si="3">SUMIFS($D$9:$D$45,$B$9:$B$45,$G10,$C$9:$C$45,"&gt;=1/02/2023",$C$9:$C$45,"&lt;=15/02/2023")</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="29">
+        <f t="shared" ref="L10:L16" si="4">SUMIFS($D$9:$D$45,$B$9:$B$45,$G10,$C$9:$C$45,"&gt;=16/02/2023",$C$9:$C$45,"&lt;=28/02/2023")</f>
+        <v>91</v>
+      </c>
+      <c r="M10" s="31">
+        <f t="shared" ref="M10:M16" si="5">K10+L10</f>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="23.15" x14ac:dyDescent="0.6">
@@ -1315,22 +1337,34 @@
       <c r="C11" s="18">
         <v>44929</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="39">
         <v>62</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="32">
+      <c r="H11" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="29">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="31">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1341,23 +1375,35 @@
       <c r="C12" s="18">
         <v>44933</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="39">
         <v>30</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="32">
+      <c r="H12" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="J12" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="29">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="L12" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="31">
+        <f t="shared" si="5"/>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="23.15" x14ac:dyDescent="0.6">
@@ -1367,23 +1413,35 @@
       <c r="C13" s="18">
         <v>44934</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="39">
         <v>90</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="32">
+      <c r="H13" s="29">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="I13" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="J13" s="31">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="K13" s="29">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="L13" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="31">
+        <f t="shared" si="5"/>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="23.15" x14ac:dyDescent="0.6">
@@ -1393,23 +1451,35 @@
       <c r="C14" s="18">
         <v>44934</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="39">
         <v>13</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="32">
+      <c r="H14" s="29">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="I14" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="J14" s="31">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="K14" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="29">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="M14" s="31">
+        <f t="shared" si="5"/>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="23.15" x14ac:dyDescent="0.6">
@@ -1419,23 +1489,35 @@
       <c r="C15" s="18">
         <v>44935</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="39">
         <v>88</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="32">
+      <c r="H15" s="29">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="I15" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="J15" s="31">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="K15" s="29">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="L15" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="31">
+        <f t="shared" si="5"/>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="23.15" x14ac:dyDescent="0.6">
@@ -1445,22 +1527,34 @@
       <c r="C16" s="18">
         <v>44937</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="39">
         <v>99</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="32">
+      <c r="H16" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="29">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="31">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1471,7 +1565,7 @@
       <c r="C17" s="18">
         <v>44944</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="39">
         <v>13</v>
       </c>
       <c r="G17" s="23" t="s">
@@ -1479,27 +1573,27 @@
       </c>
       <c r="H17" s="26">
         <f>SUM(H9:H16)</f>
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="I17" s="26">
-        <f t="shared" ref="I17:L17" si="2">SUM(I9:I16)</f>
-        <v>0</v>
+        <f t="shared" ref="I17:L17" si="6">SUM(I9:I16)</f>
+        <v>13</v>
       </c>
       <c r="J17" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>517</v>
       </c>
       <c r="K17" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>197</v>
       </c>
       <c r="L17" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>177</v>
       </c>
       <c r="M17" s="26">
         <f>SUM(M9:M16)</f>
-        <v>0</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="23.15" x14ac:dyDescent="0.6">
@@ -1509,7 +1603,7 @@
       <c r="C18" s="18">
         <v>44958</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="39">
         <v>57</v>
       </c>
       <c r="G18" s="24"/>
@@ -1522,7 +1616,7 @@
       <c r="C19" s="18">
         <v>44962</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="39">
         <v>10</v>
       </c>
       <c r="H19" s="27"/>
@@ -1534,17 +1628,17 @@
       <c r="C20" s="18">
         <v>44968</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="39">
         <v>74</v>
       </c>
-      <c r="H20" s="54" t="s">
+      <c r="H20" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="55"/>
-      <c r="K20" s="54" t="s">
+      <c r="I20" s="53"/>
+      <c r="K20" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="55"/>
+      <c r="L20" s="53"/>
     </row>
     <row r="21" spans="2:13" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B21" s="25" t="s">
@@ -1553,7 +1647,7 @@
       <c r="C21" s="18">
         <v>44969</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="39">
         <v>19</v>
       </c>
       <c r="H21" s="23" t="s">
@@ -1576,7 +1670,7 @@
       <c r="C22" s="18">
         <v>44972</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="39">
         <v>37</v>
       </c>
       <c r="G22" s="24" t="s">
@@ -1608,23 +1702,35 @@
       <c r="C23" s="18">
         <v>44975</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="39">
         <v>43</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="33" t="e">
-        <f t="shared" ref="J23:M30" si="3">J9/J$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="H23" s="30">
+        <f>$H9/$H$17</f>
+        <v>0.26984126984126983</v>
+      </c>
+      <c r="I23" s="30">
+        <f>$I9/$I$17</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="32">
+        <f t="shared" ref="J23:M30" si="7">J9/J$17</f>
+        <v>0.26305609284332687</v>
+      </c>
+      <c r="K23" s="30">
+        <f>$K9/$K$17</f>
+        <v>9.6446700507614211E-2</v>
+      </c>
+      <c r="L23" s="30">
+        <f>$L9/$L$17</f>
+        <v>0.24293785310734464</v>
+      </c>
+      <c r="M23" s="32">
+        <f t="shared" si="7"/>
+        <v>0.16577540106951871</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="23.15" x14ac:dyDescent="0.6">
@@ -1634,23 +1740,35 @@
       <c r="C24" s="18">
         <v>44979</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="39">
         <v>91</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="H24" s="30">
+        <f t="shared" ref="H24:H30" si="8">$H10/$H$17</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="30">
+        <f t="shared" ref="I24:I30" si="9">$I10/$I$17</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="32">
+        <f t="shared" si="7"/>
+        <v>2.5145067698259187E-2</v>
+      </c>
+      <c r="K24" s="30">
+        <f t="shared" ref="K24:K30" si="10">$K10/$K$17</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="30">
+        <f t="shared" ref="L24:L30" si="11">$L10/$L$17</f>
+        <v>0.51412429378531077</v>
+      </c>
+      <c r="M24" s="32">
+        <f t="shared" si="7"/>
+        <v>0.24331550802139038</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="23.15" x14ac:dyDescent="0.6">
@@ -1660,23 +1778,35 @@
       <c r="C25" s="18">
         <v>44983</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="39">
         <v>43</v>
       </c>
       <c r="G25" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="H25" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="23.15" x14ac:dyDescent="0.6">
@@ -1686,23 +1816,35 @@
       <c r="C26" s="18">
         <v>44986</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="39">
         <v>14</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="H26" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="30">
+        <f t="shared" si="10"/>
+        <v>0.18781725888324874</v>
+      </c>
+      <c r="L26" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="32">
+        <f t="shared" si="7"/>
+        <v>9.8930481283422467E-2</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="23.15" x14ac:dyDescent="0.6">
@@ -1712,23 +1854,35 @@
       <c r="C27" s="18">
         <v>44989</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="39">
         <v>67</v>
       </c>
       <c r="G27" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="H27" s="30">
+        <f t="shared" si="8"/>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="I27" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="32">
+        <f t="shared" si="7"/>
+        <v>0.3520309477756286</v>
+      </c>
+      <c r="K27" s="30">
+        <f t="shared" si="10"/>
+        <v>0.37563451776649748</v>
+      </c>
+      <c r="L27" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="32">
+        <f t="shared" si="7"/>
+        <v>0.19786096256684493</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="23.15" x14ac:dyDescent="0.6">
@@ -1738,23 +1892,35 @@
       <c r="C28" s="18">
         <v>44991</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="39">
         <v>28</v>
       </c>
       <c r="G28" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="H28" s="30">
+        <f t="shared" si="8"/>
+        <v>0.16865079365079366</v>
+      </c>
+      <c r="I28" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="32">
+        <f t="shared" si="7"/>
+        <v>0.16441005802707931</v>
+      </c>
+      <c r="K28" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="30">
+        <f t="shared" si="11"/>
+        <v>0.24293785310734464</v>
+      </c>
+      <c r="M28" s="32">
+        <f t="shared" si="7"/>
+        <v>0.11497326203208556</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="23.15" x14ac:dyDescent="0.6">
@@ -1764,23 +1930,35 @@
       <c r="C29" s="18">
         <v>44993</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="39">
         <v>77</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="H29" s="30">
+        <f t="shared" si="8"/>
+        <v>0.20039682539682541</v>
+      </c>
+      <c r="I29" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="32">
+        <f t="shared" si="7"/>
+        <v>0.195357833655706</v>
+      </c>
+      <c r="K29" s="30">
+        <f t="shared" si="10"/>
+        <v>0.34010152284263961</v>
+      </c>
+      <c r="L29" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="32">
+        <f t="shared" si="7"/>
+        <v>0.17914438502673796</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="23.15" x14ac:dyDescent="0.6">
@@ -1790,23 +1968,35 @@
       <c r="C30" s="18">
         <v>44993</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="39">
         <v>38</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="H30" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="23.15" x14ac:dyDescent="0.6">
@@ -1816,7 +2006,7 @@
       <c r="C31" s="18">
         <v>44997</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="39">
         <v>64</v>
       </c>
       <c r="G31" s="23" t="s">
@@ -1824,27 +2014,27 @@
       </c>
       <c r="H31" s="28">
         <f>SUM(H23:H30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="28">
         <f>SUM(I23:I30)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="28" t="e">
+        <v>1</v>
+      </c>
+      <c r="J31" s="28">
         <f>SUM(J23:J30)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K31" s="28">
-        <f t="shared" ref="K31:L31" si="4">SUM(K23:K30)</f>
-        <v>0</v>
+        <f t="shared" ref="K31:L31" si="12">SUM(K23:K30)</f>
+        <v>1</v>
       </c>
       <c r="L31" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="28" t="e">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M31" s="28">
         <f>SUM(M23:M30)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="23.15" x14ac:dyDescent="0.6">
@@ -1854,7 +2044,7 @@
       <c r="C32" s="18">
         <v>44998</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="39">
         <v>14</v>
       </c>
     </row>
@@ -1865,7 +2055,7 @@
       <c r="C33" s="18">
         <v>45001</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="39">
         <v>80</v>
       </c>
     </row>
@@ -1876,7 +2066,7 @@
       <c r="C34" s="18">
         <v>45001</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="39">
         <v>55</v>
       </c>
     </row>
@@ -1887,7 +2077,7 @@
       <c r="C35" s="18">
         <v>45004</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D35" s="39">
         <v>55</v>
       </c>
     </row>
@@ -1898,7 +2088,7 @@
       <c r="C36" s="18">
         <v>45005</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="39">
         <v>43</v>
       </c>
     </row>
@@ -1909,7 +2099,7 @@
       <c r="C37" s="18">
         <v>45005</v>
       </c>
-      <c r="D37" s="42">
+      <c r="D37" s="39">
         <v>79</v>
       </c>
     </row>
@@ -1920,7 +2110,7 @@
       <c r="C38" s="18">
         <v>45006</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="39">
         <v>44</v>
       </c>
     </row>
@@ -1931,7 +2121,7 @@
       <c r="C39" s="18">
         <v>45006</v>
       </c>
-      <c r="D39" s="42">
+      <c r="D39" s="39">
         <v>54</v>
       </c>
     </row>
@@ -1942,7 +2132,7 @@
       <c r="C40" s="18">
         <v>45007</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D40" s="39">
         <v>28</v>
       </c>
     </row>
@@ -1953,7 +2143,7 @@
       <c r="C41" s="18">
         <v>45010</v>
       </c>
-      <c r="D41" s="42">
+      <c r="D41" s="39">
         <v>79</v>
       </c>
     </row>
@@ -1964,7 +2154,7 @@
       <c r="C42" s="18">
         <v>45011</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="39">
         <v>61</v>
       </c>
     </row>
@@ -1975,7 +2165,7 @@
       <c r="C43" s="18">
         <v>45014</v>
       </c>
-      <c r="D43" s="42">
+      <c r="D43" s="39">
         <v>9</v>
       </c>
     </row>
@@ -1986,7 +2176,7 @@
       <c r="C44" s="18">
         <v>45014</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44" s="39">
         <v>93</v>
       </c>
     </row>
@@ -1997,7 +2187,7 @@
       <c r="C45" s="18">
         <v>45015</v>
       </c>
-      <c r="D45" s="42">
+      <c r="D45" s="39">
         <v>76</v>
       </c>
     </row>
@@ -2015,73 +2205,76 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC0DB2D-770E-4A60-8E1C-6B366AF670E5}">
-  <dimension ref="B3:U52"/>
+  <dimension ref="A3:U52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.23046875" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.07421875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.765625" customWidth="1"/>
+    <col min="5" max="5" width="13.765625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8.07421875" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.07421875" customWidth="1"/>
     <col min="9" max="9" width="17.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" ht="35.6" x14ac:dyDescent="0.9">
-      <c r="B3" s="40" t="s">
+    <row r="3" spans="1:21" ht="35.6" x14ac:dyDescent="0.9">
+      <c r="B3" s="37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="U4" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="B5" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" s="41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="B6" s="38" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="2:21" ht="26.15" x14ac:dyDescent="0.7">
-      <c r="U4" s="44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" ht="26.15" x14ac:dyDescent="0.7">
-      <c r="B5" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="U5" s="44" t="s">
+      <c r="U6" s="41" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="26.15" x14ac:dyDescent="0.7">
-      <c r="B6" s="41" t="s">
+    <row r="7" spans="1:21" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B7" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="U6" s="44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B7" s="41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" ht="18.45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="12" spans="1:21" ht="18.45" x14ac:dyDescent="0.5">
       <c r="G12" s="20" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="G13" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="G13" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:21" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A15" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="B15" s="20" t="s">
         <v>31</v>
       </c>
@@ -2101,438 +2294,822 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B16" s="37" t="s">
+    <row r="16" spans="1:21" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A16" t="str">
+        <f>B16&amp;COUNTIF($E$16:E16,E16)</f>
+        <v>Leonardo Almeida1</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>269.97000000000003</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="39"/>
-    </row>
-    <row r="17" spans="2:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B17" s="37" t="s">
+      <c r="E16" t="str">
+        <f>B16&amp;C16</f>
+        <v>Leonardo AlmeidaSapato Social</v>
+      </c>
+      <c r="G16" s="56" t="str">
+        <f t="array" ref="G16">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(A1)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(A1)),"-")</f>
+        <v>Leonardo Almeida</v>
+      </c>
+      <c r="H16" s="55" t="str">
+        <f t="array" ref="H16">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(B1)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(B1)),"-")</f>
+        <v>Sapato Social</v>
+      </c>
+      <c r="I16" s="54">
+        <f t="array" ref="I16">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(C1)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(C1)),"-")</f>
+        <v>269.97000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A17" t="str">
+        <f>B17&amp;COUNTIF($E$16:E17,E17)</f>
+        <v>Eliane Moreira1</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="36">
         <v>349.95</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="39"/>
-    </row>
-    <row r="18" spans="2:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B18" s="37" t="s">
+      <c r="E17" t="str">
+        <f t="shared" ref="E17:E52" si="0">B17&amp;C17</f>
+        <v>Eliane MoreiraBolsa de Trabalho</v>
+      </c>
+      <c r="G17" s="56" t="str">
+        <f t="array" ref="G17">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(A2)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(A2)),"-")</f>
+        <v>Leonardo Almeida</v>
+      </c>
+      <c r="H17" s="55" t="str">
+        <f t="array" ref="H17">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(B2)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(B2)),"-")</f>
+        <v>Sapato Social</v>
+      </c>
+      <c r="I17" s="54">
+        <f t="array" ref="I17">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(C2)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(C2)),"-")</f>
+        <v>1337.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A18" t="str">
+        <f>B18&amp;COUNTIF($E$16:E18,E18)</f>
+        <v>Nicolas Pereira1</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="36">
         <v>153.4</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="39"/>
-    </row>
-    <row r="19" spans="2:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B19" s="37" t="s">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolas PereiraCamisa Masculina</v>
+      </c>
+      <c r="G18" s="56" t="str">
+        <f t="array" ref="G18">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(A3)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(A3)),"-")</f>
+        <v>Leonardo Almeida</v>
+      </c>
+      <c r="H18" s="55" t="str">
+        <f t="array" ref="H18">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(B3)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(B3)),"-")</f>
+        <v>Sapato Social</v>
+      </c>
+      <c r="I18" s="54">
+        <f t="array" ref="I18">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(C3)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(C3)),"-")</f>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A19" t="str">
+        <f>B19&amp;COUNTIF($E$16:E19,E19)</f>
+        <v>Leonardo Almeida2</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="36">
         <v>1337.04</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="39"/>
-    </row>
-    <row r="20" spans="2:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B20" s="37" t="s">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Leonardo AlmeidaSapato Social</v>
+      </c>
+      <c r="G19" s="56" t="str">
+        <f t="array" ref="G19">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(A4)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(A4)),"-")</f>
+        <v>Leonardo Almeida</v>
+      </c>
+      <c r="H19" s="55" t="str">
+        <f t="array" ref="H19">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(B4)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(B4)),"-")</f>
+        <v>Sapato Social</v>
+      </c>
+      <c r="I19" s="54">
+        <f t="array" ref="I19">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(C4)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(C4)),"-")</f>
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A20" t="str">
+        <f>B20&amp;COUNTIF($E$16:E20,E20)</f>
+        <v>Paulo Santos1</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="36">
         <v>146.13999999999999</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="39"/>
-    </row>
-    <row r="21" spans="2:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B21" s="37" t="s">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulo SantosSapato Social</v>
+      </c>
+      <c r="G20" s="56" t="str">
+        <f t="array" ref="G20">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(A5)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(A5)),"-")</f>
+        <v>Leonardo Almeida</v>
+      </c>
+      <c r="H20" s="55" t="str">
+        <f t="array" ref="H20">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(B5)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(B5)),"-")</f>
+        <v>Sapato Social</v>
+      </c>
+      <c r="I20" s="54">
+        <f t="array" ref="I20">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(C5)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(C5)),"-")</f>
+        <v>153.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A21" t="str">
+        <f>B21&amp;COUNTIF($E$16:E21,E21)</f>
+        <v>Aline Rosa1</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="36">
         <v>896.56</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="39"/>
-    </row>
-    <row r="22" spans="2:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B22" s="37" t="s">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Aline RosaSapato Social</v>
+      </c>
+      <c r="G21" s="56" t="str">
+        <f t="array" ref="G21">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(A6)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(A6)),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="H21" s="55" t="str">
+        <f t="array" ref="H21">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(B6)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(B6)),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I21" s="54" t="str">
+        <f t="array" ref="I21">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(C6)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(C6)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A22" t="str">
+        <f>B22&amp;COUNTIF($E$16:E22,E22)</f>
+        <v>Leonardo Almeida3</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="36">
         <v>602</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="39"/>
-    </row>
-    <row r="23" spans="2:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B23" s="37" t="s">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Leonardo AlmeidaSapato Social</v>
+      </c>
+      <c r="G22" s="56" t="str">
+        <f t="array" ref="G22">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(A7)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(A7)),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="H22" s="55" t="str">
+        <f t="array" ref="H22">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(B7)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(B7)),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I22" s="54" t="str">
+        <f t="array" ref="I22">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(C7)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(C7)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A23" t="str">
+        <f>B23&amp;COUNTIF($E$16:E23,E23)</f>
+        <v>Eliane Moreira2</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="36">
         <v>248.73</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="39"/>
-    </row>
-    <row r="24" spans="2:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B24" s="37" t="s">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Eliane MoreiraBolsa de Trabalho</v>
+      </c>
+      <c r="G23" s="56" t="str">
+        <f t="array" ref="G23">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(A8)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(A8)),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="H23" s="55" t="str">
+        <f t="array" ref="H23">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(B8)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(B8)),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I23" s="54" t="str">
+        <f t="array" ref="I23">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(C8)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(C8)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A24" t="str">
+        <f>B24&amp;COUNTIF($E$16:E24,E24)</f>
+        <v>Nicolas Pereira2</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="36">
         <v>116.52</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="39"/>
-    </row>
-    <row r="25" spans="2:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B25" s="37" t="s">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolas PereiraCamisa Masculina</v>
+      </c>
+      <c r="G24" s="56" t="str">
+        <f t="array" ref="G24">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(A9)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(A9)),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="H24" s="55" t="str">
+        <f t="array" ref="H24">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(B9)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(B9)),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I24" s="54" t="str">
+        <f t="array" ref="I24">IFERROR(INDEX($B$16:$D$52,MATCH($G$13&amp;ROW(C9)&amp;$G$13&amp;$H$13,$A$16:$A$52&amp;$B$16:$B$52&amp;$C$16:$C$52,0),COLUMN(C9)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A25" t="str">
+        <f>B25&amp;COUNTIF($E$16:E25,E25)</f>
+        <v>Amanda Martins1</v>
+      </c>
+      <c r="B25" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="36">
         <v>59.9</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B26" s="37" t="s">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>Amanda MartinsVestido Infantil</v>
+      </c>
+      <c r="H25" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="58">
+        <f>SUM(I16:I24)</f>
+        <v>2409.3100000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A26" t="str">
+        <f>B26&amp;COUNTIF($E$16:E26,E26)</f>
+        <v>Leonardo Almeida4</v>
+      </c>
+      <c r="B26" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="36">
         <v>46.9</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B27" s="37" t="s">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>Leonardo AlmeidaSapato Social</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A27" t="str">
+        <f>B27&amp;COUNTIF($E$16:E27,E27)</f>
+        <v>Eliane Moreira3</v>
+      </c>
+      <c r="B27" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="36">
         <v>167.6</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B28" s="37" t="s">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>Eliane MoreiraBolsa de Trabalho</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A28" t="str">
+        <f>B28&amp;COUNTIF($E$16:E28,E28)</f>
+        <v>Nicolas Pereira3</v>
+      </c>
+      <c r="B28" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="36">
         <v>737.1</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B29" s="37" t="s">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolas PereiraCamisa Masculina</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A29" t="str">
+        <f>B29&amp;COUNTIF($E$16:E29,E29)</f>
+        <v>Amanda Martins1</v>
+      </c>
+      <c r="B29" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="36">
         <v>111.8</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B30" s="37" t="s">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>Amanda MartinsSapato Social</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A30" t="str">
+        <f>B30&amp;COUNTIF($E$16:E30,E30)</f>
+        <v>Eliane Moreira1</v>
+      </c>
+      <c r="B30" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="36">
         <v>89.9</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B31" s="37" t="s">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>Eliane MoreiraSapato Social</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A31" t="str">
+        <f>B31&amp;COUNTIF($E$16:E31,E31)</f>
+        <v>Angela Maria1</v>
+      </c>
+      <c r="B31" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="36">
         <v>89.99</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B32" s="37" t="s">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Angela MariaSapato Social</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A32" t="str">
+        <f>B32&amp;COUNTIF($E$16:E32,E32)</f>
+        <v>Carlos Moreira1</v>
+      </c>
+      <c r="B32" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="36">
         <v>69.989999999999995</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B33" s="37" t="s">
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Carlos MoreiraCalça Feminina Jogger</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A33" t="str">
+        <f>B33&amp;COUNTIF($E$16:E33,E33)</f>
+        <v>Eliane Moreira2</v>
+      </c>
+      <c r="B33" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="36">
         <v>306.8</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B34" s="37" t="s">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Eliane MoreiraSapato Social</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A34" t="str">
+        <f>B34&amp;COUNTIF($E$16:E34,E34)</f>
+        <v>Nicolas Pereira4</v>
+      </c>
+      <c r="B34" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="36">
         <v>891.36</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B35" s="37" t="s">
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolas PereiraCamisa Masculina</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A35" t="str">
+        <f>B35&amp;COUNTIF($E$16:E35,E35)</f>
+        <v>Leonardo Almeida1</v>
+      </c>
+      <c r="B35" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="36">
         <v>146.13999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B36" s="37" t="s">
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Leonardo AlmeidaJaqueta Masculina Preta</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A36" t="str">
+        <f>B36&amp;COUNTIF($E$16:E36,E36)</f>
+        <v>Aline Rosa2</v>
+      </c>
+      <c r="B36" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="36">
         <v>224.14</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B37" s="37" t="s">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Aline RosaSapato Social</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A37" t="str">
+        <f>B37&amp;COUNTIF($E$16:E37,E37)</f>
+        <v>Leonardo Almeida2</v>
+      </c>
+      <c r="B37" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="36">
         <v>752.5</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B38" s="37" t="s">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Leonardo AlmeidaJaqueta Masculina Preta</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A38" t="str">
+        <f>B38&amp;COUNTIF($E$16:E38,E38)</f>
+        <v>Eliane Moreira3</v>
+      </c>
+      <c r="B38" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="36">
         <v>497.46</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B39" s="37" t="s">
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>Eliane MoreiraSapato Social</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A39" t="str">
+        <f>B39&amp;COUNTIF($E$16:E39,E39)</f>
+        <v>Nicolas Pereira1</v>
+      </c>
+      <c r="B39" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="36">
         <v>349.56</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B40" s="37" t="s">
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolas PereiraBermuda Masculino</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A40" t="str">
+        <f>B40&amp;COUNTIF($E$16:E40,E40)</f>
+        <v>Amanda Martins2</v>
+      </c>
+      <c r="B40" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40" s="36">
         <v>119.8</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B41" s="37" t="s">
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Amanda MartinsVestido Infantil</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A41" t="str">
+        <f>B41&amp;COUNTIF($E$16:E41,E41)</f>
+        <v>Eliane Moreira4</v>
+      </c>
+      <c r="B41" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="36">
         <v>93.8</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B42" s="37" t="s">
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>Eliane MoreiraSapato Social</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A42" t="str">
+        <f>B42&amp;COUNTIF($E$16:E42,E42)</f>
+        <v>Nicolas Pereira2</v>
+      </c>
+      <c r="B42" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="38">
+      <c r="D42" s="36">
         <v>83.8</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B43" s="37" t="s">
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolas PereiraBermuda Masculino</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A43" t="str">
+        <f>B43&amp;COUNTIF($E$16:E43,E43)</f>
+        <v>Amanda Martins2</v>
+      </c>
+      <c r="B43" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="36">
         <v>327.60000000000002</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B44" s="37" t="s">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>Amanda MartinsSapato Social</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A44" t="str">
+        <f>B44&amp;COUNTIF($E$16:E44,E44)</f>
+        <v>Angela Maria2</v>
+      </c>
+      <c r="B44" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="38">
+      <c r="D44" s="36">
         <v>349.56</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B45" s="37" t="s">
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>Angela MariaSapato Social</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A45" t="str">
+        <f>B45&amp;COUNTIF($E$16:E45,E45)</f>
+        <v>Angela Maria3</v>
+      </c>
+      <c r="B45" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="36">
         <v>119.8</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B46" s="37" t="s">
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>Angela MariaSapato Social</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A46" t="str">
+        <f>B46&amp;COUNTIF($E$16:E46,E46)</f>
+        <v>Carlos Moreira2</v>
+      </c>
+      <c r="B46" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D46" s="36">
         <v>120</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B47" s="37" t="s">
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>Carlos MoreiraCalça Feminina Jogger</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A47" t="str">
+        <f>B47&amp;COUNTIF($E$16:E47,E47)</f>
+        <v>Carlos Moreira3</v>
+      </c>
+      <c r="B47" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="36">
         <v>780</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B48" s="37" t="s">
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>Carlos MoreiraCalça Feminina Jogger</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A48" t="str">
+        <f>B48&amp;COUNTIF($E$16:E48,E48)</f>
+        <v>Aline Rosa3</v>
+      </c>
+      <c r="B48" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="38">
+      <c r="D48" s="36">
         <v>297.12</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B49" s="37" t="s">
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>Aline RosaSapato Social</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A49" t="str">
+        <f>B49&amp;COUNTIF($E$16:E49,E49)</f>
+        <v>Leonardo Almeida5</v>
+      </c>
+      <c r="B49" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49" s="36">
         <v>153.4</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B50" s="37" t="s">
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>Leonardo AlmeidaSapato Social</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A50" t="str">
+        <f>B50&amp;COUNTIF($E$16:E50,E50)</f>
+        <v>Aline Rosa1</v>
+      </c>
+      <c r="B50" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="38">
+      <c r="D50" s="36">
         <v>120</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B51" s="37" t="s">
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>Aline RosaBolsa de Trabalho</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A51" t="str">
+        <f>B51&amp;COUNTIF($E$16:E51,E51)</f>
+        <v>Paulo Santos2</v>
+      </c>
+      <c r="B51" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="38">
+      <c r="D51" s="36">
         <v>655.20000000000005</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B52" s="37" t="s">
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulo SantosSapato Social</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A52" t="str">
+        <f>B52&amp;COUNTIF($E$16:E52,E52)</f>
+        <v>Paulo Santos3</v>
+      </c>
+      <c r="B52" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="37" t="s">
+      <c r="C52" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="38">
+      <c r="D52" s="36">
         <v>153.4</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulo SantosSapato Social</v>
       </c>
     </row>
   </sheetData>
@@ -2580,21 +3157,21 @@
   <sheetData>
     <row r="2" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="44" t="s">
-        <v>75</v>
+      <c r="P3" s="41" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2"/>
-      <c r="P4" s="44" t="s">
-        <v>74</v>
+      <c r="P4" s="41" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -2628,8 +3205,8 @@
       <c r="L6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="44" t="s">
-        <v>77</v>
+      <c r="P6" s="41" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -2639,7 +3216,7 @@
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="34" t="str">
+      <c r="D7" s="33" t="str">
         <f>TRIM(IF(ISNUMBER(SEARCH(G$6,$C7)),G$6,"")&amp; " "&amp;
 IF(ISNUMBER(SEARCH(H$6,$C7)),H$6,"")&amp; " " &amp;
 IF(ISNUMBER(SEARCH(I$6,$C7)),I$6,"") &amp; " " &amp;
@@ -2648,7 +3225,7 @@
 IF(ISNUMBER(SEARCH(L$6,$C7)),L$6,""))</f>
         <v>Nicolas Allan</v>
       </c>
-      <c r="E7" s="34" t="str">
+      <c r="E7" s="33" t="str">
         <f>TRIM(IF(ISNUMBER(SEARCH("Rose",$C7)),"Rose, ","") &amp; " " &amp;
 IF(ISNUMBER(SEARCH("Nicolas",$C7)),"Nicolas, ","") &amp; " " &amp;
 IF(ISNUMBER(SEARCH("Allan",$C7)),"Allan, ","") &amp; " " &amp;
@@ -2681,8 +3258,8 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P7" s="44" t="s">
-        <v>76</v>
+      <c r="P7" s="41" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -2692,7 +3269,7 @@
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="34" t="str">
+      <c r="D8" s="33" t="str">
         <f t="shared" ref="D8:D12" si="1">TRIM(IF(ISNUMBER(SEARCH(G$6,$C8)),G$6,"")&amp; " "&amp;
 IF(ISNUMBER(SEARCH(H$6,$C8)),H$6,"")&amp; " " &amp;
 IF(ISNUMBER(SEARCH(I$6,$C8)),I$6,"") &amp; " " &amp;
@@ -2701,7 +3278,7 @@
 IF(ISNUMBER(SEARCH(L$6,$C8)),L$6,""))</f>
         <v>Ryan</v>
       </c>
-      <c r="E8" s="34" t="str">
+      <c r="E8" s="33" t="str">
         <f t="shared" ref="E8:E12" si="2">TRIM(IF(ISNUMBER(SEARCH("Rose",$C8)),"Rose, ","") &amp; " " &amp;
 IF(ISNUMBER(SEARCH("Nicolas",$C8)),"Nicolas, ","") &amp; " " &amp;
 IF(ISNUMBER(SEARCH("Allan",$C8)),"Allan, ","") &amp; " " &amp;
@@ -2742,11 +3319,11 @@
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="34" t="str">
+      <c r="D9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>Allan Amanda</v>
       </c>
-      <c r="E9" s="34" t="str">
+      <c r="E9" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Allan, Amanda,</v>
       </c>
@@ -2782,11 +3359,11 @@
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="34" t="str">
+      <c r="D10" s="33" t="str">
         <f t="shared" si="1"/>
         <v>Steve</v>
       </c>
-      <c r="E10" s="34" t="str">
+      <c r="E10" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Steve,</v>
       </c>
@@ -2822,11 +3399,11 @@
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="34" t="str">
+      <c r="D11" s="33" t="str">
         <f t="shared" si="1"/>
         <v>Rose</v>
       </c>
-      <c r="E11" s="34" t="str">
+      <c r="E11" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Rose,</v>
       </c>
@@ -2862,11 +3439,11 @@
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="34" t="str">
+      <c r="D12" s="33" t="str">
         <f t="shared" si="1"/>
         <v>Rose Nicolas Allan Steve</v>
       </c>
-      <c r="E12" s="34" t="str">
+      <c r="E12" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Rose, Nicolas, Allan, Steve,</v>
       </c>
@@ -2947,7 +3524,7 @@
   <sheetData>
     <row r="3" spans="2:19" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="26.15" x14ac:dyDescent="0.7">
@@ -2974,8 +3551,8 @@
       <c r="H7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="44" t="s">
-        <v>78</v>
+      <c r="S7" s="41" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="33.450000000000003" x14ac:dyDescent="0.85">
@@ -2988,19 +3565,19 @@
       <c r="D8" s="19">
         <v>100</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="43">
         <f t="array" ref="G8">MAX(IF($C$7:$C$21=F8,$B$7:$B$21))</f>
         <v>45067</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="44">
         <f t="array" ref="H8">INDEX($B$8:$D$21,MATCH(F8&amp;G8,$C$8:$C$21&amp;$B$8:$B$21,0),3)</f>
         <v>1300</v>
       </c>
-      <c r="S8" s="44" t="s">
-        <v>79</v>
+      <c r="S8" s="41" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="33.450000000000003" x14ac:dyDescent="0.85">
@@ -3014,14 +3591,14 @@
         <f t="shared" ref="D9:D21" si="0">D8+100</f>
         <v>200</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="43">
         <f t="array" ref="G9">MAX(IF($C$7:$C$21=F9,$B$7:$B$21))</f>
         <v>45072</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="44">
         <f t="array" ref="H9">INDEX($B$8:$D$21,MATCH(F9&amp;G9,$C$8:$C$21&amp;$B$8:$B$21,0),3)</f>
         <v>1400</v>
       </c>
@@ -3037,19 +3614,19 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="43">
         <f t="array" ref="G10">MAX(IF($C$7:$C$21=F10,$B$7:$B$21))</f>
         <v>45057</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="44">
         <f t="array" ref="H10">INDEX($B$8:$D$21,MATCH(F10&amp;G10,$C$8:$C$21&amp;$B$8:$B$21,0),3)</f>
         <v>1100</v>
       </c>
-      <c r="S10" s="44" t="s">
-        <v>80</v>
+      <c r="S10" s="41" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="26.15" x14ac:dyDescent="0.7">
@@ -3063,8 +3640,8 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="S11" s="44" t="s">
-        <v>81</v>
+      <c r="S11" s="41" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="23.15" x14ac:dyDescent="0.6">
@@ -3212,7 +3789,7 @@
   <sheetData>
     <row r="3" spans="2:25" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3"/>
       <c r="F3" s="1"/>
@@ -3240,21 +3817,21 @@
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Y5" s="44" t="s">
-        <v>83</v>
+      <c r="Y5" s="41" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="26.15" x14ac:dyDescent="0.7">
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="K6" s="54" t="s">
+      <c r="I6" s="53"/>
+      <c r="K6" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="55"/>
-      <c r="Y6" s="44" t="s">
-        <v>82</v>
+      <c r="L6" s="53"/>
+      <c r="Y6" s="41" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="26.15" x14ac:dyDescent="0.7">
@@ -3270,8 +3847,8 @@
       <c r="L7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="44" t="s">
-        <v>84</v>
+      <c r="Y7" s="41" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:25" ht="26.15" x14ac:dyDescent="0.7">
@@ -3282,7 +3859,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>31</v>
@@ -3305,8 +3882,8 @@
       <c r="M8" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="Y8" s="44" t="s">
-        <v>85</v>
+      <c r="Y8" s="41" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="26.15" x14ac:dyDescent="0.7">
@@ -3316,7 +3893,7 @@
       <c r="C9" s="18">
         <v>44927</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="39">
         <v>85</v>
       </c>
       <c r="G9" s="25" t="s">
@@ -3336,7 +3913,7 @@
 $C$9:$C$45,"&lt;=31/01/2023")</f>
         <v>0</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="31">
         <f>H9+I9</f>
         <v>136</v>
       </c>
@@ -3354,12 +3931,12 @@
 $C$9:$C$45,"&lt;=28/02/2023")</f>
         <v>43</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="31">
         <f>K9+L9</f>
         <v>62</v>
       </c>
-      <c r="Y9" s="44" t="s">
-        <v>86</v>
+      <c r="Y9" s="41" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="23.15" x14ac:dyDescent="0.6">
@@ -3369,7 +3946,7 @@
       <c r="C10" s="18">
         <v>44928</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="39">
         <v>37</v>
       </c>
       <c r="G10" s="25" t="s">
@@ -3389,7 +3966,7 @@
 $C$9:$C$45,"&lt;=31/01/2023")</f>
         <v>13</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="31">
         <f t="shared" ref="J10:J16" si="1">H10+I10</f>
         <v>13</v>
       </c>
@@ -3407,7 +3984,7 @@
 $C$9:$C$45,"&lt;=28/02/2023")</f>
         <v>91</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="31">
         <f t="shared" ref="M10:M16" si="3">K10+L10</f>
         <v>91</v>
       </c>
@@ -3419,7 +3996,7 @@
       <c r="C11" s="18">
         <v>44929</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="39">
         <v>62</v>
       </c>
       <c r="G11" s="25" t="s">
@@ -3436,7 +4013,7 @@
 $C$9:$C$45,"&lt;=31/01/2023")</f>
         <v>0</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3451,7 +4028,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3463,7 +4040,7 @@
       <c r="C12" s="18">
         <v>44933</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="39">
         <v>30</v>
       </c>
       <c r="G12" s="25" t="s">
@@ -3477,7 +4054,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3495,7 +4072,7 @@
 $C$9:$C$45,"&lt;=28/02/2023")</f>
         <v>0</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="31">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
@@ -3507,7 +4084,7 @@
       <c r="C13" s="18">
         <v>44934</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="39">
         <v>90</v>
       </c>
       <c r="G13" s="25" t="s">
@@ -3521,7 +4098,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="31">
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
@@ -3533,7 +4110,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="31">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
@@ -3545,7 +4122,7 @@
       <c r="C14" s="18">
         <v>44934</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="39">
         <v>13</v>
       </c>
       <c r="G14" s="25" t="s">
@@ -3559,7 +4136,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="31">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
@@ -3571,7 +4148,7 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="31">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
@@ -3583,7 +4160,7 @@
       <c r="C15" s="18">
         <v>44935</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="39">
         <v>88</v>
       </c>
       <c r="G15" s="25" t="s">
@@ -3597,7 +4174,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="31">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -3609,7 +4186,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M15" s="31">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
@@ -3621,7 +4198,7 @@
       <c r="C16" s="18">
         <v>44937</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="39">
         <v>99</v>
       </c>
       <c r="G16" s="25" t="s">
@@ -3635,7 +4212,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3647,7 +4224,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3659,7 +4236,7 @@
       <c r="C17" s="18">
         <v>44944</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="39">
         <v>13</v>
       </c>
       <c r="G17" s="23" t="s">
@@ -3697,7 +4274,7 @@
       <c r="C18" s="18">
         <v>44958</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="39">
         <v>57</v>
       </c>
       <c r="G18" s="24"/>
@@ -3710,7 +4287,7 @@
       <c r="C19" s="18">
         <v>44962</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="39">
         <v>10</v>
       </c>
       <c r="H19" s="27"/>
@@ -3722,17 +4299,17 @@
       <c r="C20" s="18">
         <v>44968</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="39">
         <v>74</v>
       </c>
-      <c r="H20" s="54" t="s">
+      <c r="H20" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="55"/>
-      <c r="K20" s="54" t="s">
+      <c r="I20" s="53"/>
+      <c r="K20" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="55"/>
+      <c r="L20" s="53"/>
     </row>
     <row r="21" spans="2:13" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B21" s="25" t="s">
@@ -3741,7 +4318,7 @@
       <c r="C21" s="18">
         <v>44969</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="39">
         <v>19</v>
       </c>
       <c r="H21" s="23" t="s">
@@ -3764,7 +4341,7 @@
       <c r="C22" s="18">
         <v>44972</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="39">
         <v>37</v>
       </c>
       <c r="G22" s="24" t="s">
@@ -3796,33 +4373,33 @@
       <c r="C23" s="18">
         <v>44975</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="39">
         <v>43</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="45">
         <f>H9/H$17</f>
         <v>0.26984126984126983</v>
       </c>
-      <c r="I23" s="48">
+      <c r="I23" s="45">
         <f t="shared" ref="I23:I30" si="7">I9/I$17</f>
         <v>0</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="32">
         <f>J9/J$17</f>
         <v>0.26305609284332687</v>
       </c>
-      <c r="K23" s="48">
+      <c r="K23" s="45">
         <f>K9/K$17</f>
         <v>9.6446700507614211E-2</v>
       </c>
-      <c r="L23" s="48">
+      <c r="L23" s="45">
         <f t="shared" ref="L23:L30" si="8">L9/L$17</f>
         <v>0.24293785310734464</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="32">
         <f t="shared" ref="M23" si="9">M9/M$17</f>
         <v>0.16577540106951871</v>
       </c>
@@ -3834,33 +4411,33 @@
       <c r="C24" s="18">
         <v>44979</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="39">
         <v>91</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="45">
         <f t="shared" ref="H24" si="10">H10/H$17</f>
         <v>0</v>
       </c>
-      <c r="I24" s="48">
+      <c r="I24" s="45">
         <f>I10/I$17</f>
         <v>1</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="32">
         <f>J10/J$17</f>
         <v>2.5145067698259187E-2</v>
       </c>
-      <c r="K24" s="48">
+      <c r="K24" s="45">
         <f t="shared" ref="K24" si="11">K10/K$17</f>
         <v>0</v>
       </c>
-      <c r="L24" s="48">
+      <c r="L24" s="45">
         <f t="shared" si="8"/>
         <v>0.51412429378531077</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="32">
         <f t="shared" ref="M24" si="12">M10/M$17</f>
         <v>0.24331550802139038</v>
       </c>
@@ -3872,33 +4449,33 @@
       <c r="C25" s="18">
         <v>44983</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="39">
         <v>43</v>
       </c>
       <c r="G25" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="48">
+      <c r="H25" s="45">
         <f t="shared" ref="H25" si="13">H11/H$17</f>
         <v>0</v>
       </c>
-      <c r="I25" s="48">
+      <c r="I25" s="45">
         <f>I11/I$17</f>
         <v>0</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="32">
         <f t="shared" ref="J25:K25" si="14">J11/J$17</f>
         <v>0</v>
       </c>
-      <c r="K25" s="48">
+      <c r="K25" s="45">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L25" s="48">
+      <c r="L25" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="32">
         <f t="shared" ref="M25" si="15">M11/M$17</f>
         <v>0</v>
       </c>
@@ -3910,33 +4487,33 @@
       <c r="C26" s="18">
         <v>44986</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="39">
         <v>14</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="45">
         <f t="shared" ref="H26" si="16">H12/H$17</f>
         <v>0</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="45">
         <f>I12/I$17</f>
         <v>0</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="32">
         <f t="shared" ref="J26:K26" si="17">J12/J$17</f>
         <v>0</v>
       </c>
-      <c r="K26" s="48">
+      <c r="K26" s="45">
         <f t="shared" si="17"/>
         <v>0.18781725888324874</v>
       </c>
-      <c r="L26" s="48">
+      <c r="L26" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="32">
         <f t="shared" ref="M26" si="18">M12/M$17</f>
         <v>9.8930481283422467E-2</v>
       </c>
@@ -3948,33 +4525,33 @@
       <c r="C27" s="18">
         <v>44989</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="39">
         <v>67</v>
       </c>
       <c r="G27" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="48">
+      <c r="H27" s="45">
         <f t="shared" ref="H27" si="19">H13/H$17</f>
         <v>0.3611111111111111</v>
       </c>
-      <c r="I27" s="48">
+      <c r="I27" s="45">
         <f>I13/I$17</f>
         <v>0</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="32">
         <f t="shared" ref="J27:K27" si="20">J13/J$17</f>
         <v>0.3520309477756286</v>
       </c>
-      <c r="K27" s="48">
+      <c r="K27" s="45">
         <f t="shared" si="20"/>
         <v>0.37563451776649748</v>
       </c>
-      <c r="L27" s="48">
+      <c r="L27" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="32">
         <f t="shared" ref="M27" si="21">M13/M$17</f>
         <v>0.19786096256684493</v>
       </c>
@@ -3986,33 +4563,33 @@
       <c r="C28" s="18">
         <v>44991</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="39">
         <v>28</v>
       </c>
       <c r="G28" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="48">
+      <c r="H28" s="45">
         <f t="shared" ref="H28" si="22">H14/H$17</f>
         <v>0.16865079365079366</v>
       </c>
-      <c r="I28" s="48">
+      <c r="I28" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="32">
         <f t="shared" ref="J28:K28" si="23">J14/J$17</f>
         <v>0.16441005802707931</v>
       </c>
-      <c r="K28" s="48">
+      <c r="K28" s="45">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L28" s="48">
+      <c r="L28" s="45">
         <f t="shared" si="8"/>
         <v>0.24293785310734464</v>
       </c>
-      <c r="M28" s="33">
+      <c r="M28" s="32">
         <f t="shared" ref="M28" si="24">M14/M$17</f>
         <v>0.11497326203208556</v>
       </c>
@@ -4024,33 +4601,33 @@
       <c r="C29" s="18">
         <v>44993</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="39">
         <v>77</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="48">
+      <c r="H29" s="45">
         <f t="shared" ref="H29" si="25">H15/H$17</f>
         <v>0.20039682539682541</v>
       </c>
-      <c r="I29" s="48">
+      <c r="I29" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J29" s="32">
         <f t="shared" ref="J29:K29" si="26">J15/J$17</f>
         <v>0.195357833655706</v>
       </c>
-      <c r="K29" s="48">
+      <c r="K29" s="45">
         <f t="shared" si="26"/>
         <v>0.34010152284263961</v>
       </c>
-      <c r="L29" s="48">
+      <c r="L29" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M29" s="32">
         <f t="shared" ref="M29" si="27">M15/M$17</f>
         <v>0.17914438502673796</v>
       </c>
@@ -4062,33 +4639,33 @@
       <c r="C30" s="18">
         <v>44993</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="39">
         <v>38</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H30" s="45">
         <f t="shared" ref="H30" si="28">H16/H$17</f>
         <v>0</v>
       </c>
-      <c r="I30" s="48">
+      <c r="I30" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J30" s="33">
+      <c r="J30" s="32">
         <f t="shared" ref="J30:K30" si="29">J16/J$17</f>
         <v>0</v>
       </c>
-      <c r="K30" s="48">
+      <c r="K30" s="45">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="L30" s="48">
+      <c r="L30" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M30" s="33">
+      <c r="M30" s="32">
         <f t="shared" ref="M30" si="30">M16/M$17</f>
         <v>0</v>
       </c>
@@ -4100,7 +4677,7 @@
       <c r="C31" s="18">
         <v>44997</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="39">
         <v>64</v>
       </c>
       <c r="G31" s="23" t="s">
@@ -4138,7 +4715,7 @@
       <c r="C32" s="18">
         <v>44998</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="39">
         <v>14</v>
       </c>
     </row>
@@ -4149,7 +4726,7 @@
       <c r="C33" s="18">
         <v>45001</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="39">
         <v>80</v>
       </c>
     </row>
@@ -4160,7 +4737,7 @@
       <c r="C34" s="18">
         <v>45001</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="39">
         <v>55</v>
       </c>
     </row>
@@ -4171,7 +4748,7 @@
       <c r="C35" s="18">
         <v>45004</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D35" s="39">
         <v>55</v>
       </c>
     </row>
@@ -4182,7 +4759,7 @@
       <c r="C36" s="18">
         <v>45005</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="39">
         <v>43</v>
       </c>
     </row>
@@ -4193,7 +4770,7 @@
       <c r="C37" s="18">
         <v>45005</v>
       </c>
-      <c r="D37" s="42">
+      <c r="D37" s="39">
         <v>79</v>
       </c>
     </row>
@@ -4204,7 +4781,7 @@
       <c r="C38" s="18">
         <v>45006</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="39">
         <v>44</v>
       </c>
     </row>
@@ -4215,7 +4792,7 @@
       <c r="C39" s="18">
         <v>45006</v>
       </c>
-      <c r="D39" s="42">
+      <c r="D39" s="39">
         <v>54</v>
       </c>
     </row>
@@ -4226,7 +4803,7 @@
       <c r="C40" s="18">
         <v>45007</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D40" s="39">
         <v>28</v>
       </c>
     </row>
@@ -4237,7 +4814,7 @@
       <c r="C41" s="18">
         <v>45010</v>
       </c>
-      <c r="D41" s="42">
+      <c r="D41" s="39">
         <v>79</v>
       </c>
     </row>
@@ -4248,7 +4825,7 @@
       <c r="C42" s="18">
         <v>45011</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="39">
         <v>61</v>
       </c>
     </row>
@@ -4259,7 +4836,7 @@
       <c r="C43" s="18">
         <v>45014</v>
       </c>
-      <c r="D43" s="42">
+      <c r="D43" s="39">
         <v>9</v>
       </c>
     </row>
@@ -4270,7 +4847,7 @@
       <c r="C44" s="18">
         <v>45014</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44" s="39">
         <v>93</v>
       </c>
     </row>
@@ -4281,7 +4858,7 @@
       <c r="C45" s="18">
         <v>45015</v>
       </c>
-      <c r="D45" s="42">
+      <c r="D45" s="39">
         <v>76</v>
       </c>
     </row>
@@ -4302,8 +4879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BB7A31-4CF6-435E-B370-06C109E3E111}">
   <dimension ref="A3:U52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4320,34 +4897,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" ht="35.6" x14ac:dyDescent="0.9">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="U4" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="B5" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" s="41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="B6" s="38" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="26.15" x14ac:dyDescent="0.7">
-      <c r="U4" s="44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="26.15" x14ac:dyDescent="0.7">
-      <c r="B5" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="U5" s="44" t="s">
+      <c r="U6" s="41" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="26.15" x14ac:dyDescent="0.7">
-      <c r="B6" s="41" t="s">
+    <row r="7" spans="1:21" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B7" s="38" t="s">
         <v>62</v>
-      </c>
-      <c r="U6" s="44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B7" s="41" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="18.45" x14ac:dyDescent="0.5">
@@ -4359,16 +4936,16 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="30.9" x14ac:dyDescent="0.8">
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="48" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A15" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>31</v>
@@ -4394,34 +4971,34 @@
         <f>B16&amp;COUNTIF($E$16:E16,E16)</f>
         <v>Leonardo Almeida1</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="49">
         <v>269.97000000000003</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>B16&amp;C16</f>
         <v>Leonardo AlmeidaSapato Social</v>
       </c>
-      <c r="G16" s="49" t="str">
-        <f t="array" ref="G16">IFERROR(INDEX($A$15:$D$52,
+      <c r="G16" s="46" t="str">
+        <f>IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(A1)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(B1)),"")</f>
-        <v>Leonardo Almeida</v>
-      </c>
-      <c r="H16" s="49" t="str">
+        <v/>
+      </c>
+      <c r="H16" s="46" t="str">
         <f t="array" ref="H16">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(B1)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(C1)),"")</f>
         <v>Jaqueta Masculina Preta</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16" s="47">
         <f t="array" ref="I16">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(C1)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
@@ -4434,34 +5011,34 @@
         <f>B17&amp;COUNTIF($E$16:E17,E17)</f>
         <v>Eliane Moreira1</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="49">
         <v>349.95</v>
       </c>
       <c r="E17" s="2" t="str">
         <f t="shared" ref="E17:E52" si="0">B17&amp;C17</f>
         <v>Eliane MoreiraBolsa de Trabalho</v>
       </c>
-      <c r="G17" s="49" t="str">
+      <c r="G17" s="46" t="str">
         <f t="array" ref="G17">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(A2)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(B2)),"")</f>
         <v>Leonardo Almeida</v>
       </c>
-      <c r="H17" s="49" t="str">
+      <c r="H17" s="46" t="str">
         <f t="array" ref="H17">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(B2)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(C2)),"")</f>
         <v>Jaqueta Masculina Preta</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="47">
         <f t="array" ref="I17">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(C2)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
@@ -4474,34 +5051,34 @@
         <f>B18&amp;COUNTIF($E$16:E18,E18)</f>
         <v>Nicolas Pereira1</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="49">
         <v>153.4</v>
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Nicolas PereiraCamisa Masculina</v>
       </c>
-      <c r="G18" s="49" t="str">
+      <c r="G18" s="46" t="str">
         <f t="array" ref="G18">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(A3)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(B3)),"")</f>
         <v/>
       </c>
-      <c r="H18" s="49" t="str">
+      <c r="H18" s="46" t="str">
         <f t="array" ref="H18">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(B3)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(C3)),"")</f>
         <v/>
       </c>
-      <c r="I18" s="50" t="str">
+      <c r="I18" s="47" t="str">
         <f t="array" ref="I18">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(C3)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
@@ -4514,34 +5091,34 @@
         <f>B19&amp;COUNTIF($E$16:E19,E19)</f>
         <v>Leonardo Almeida2</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="49">
         <v>1337.04</v>
       </c>
       <c r="E19" s="2" t="str">
         <f>B19&amp;C19</f>
         <v>Leonardo AlmeidaSapato Social</v>
       </c>
-      <c r="G19" s="49" t="str">
+      <c r="G19" s="46" t="str">
         <f t="array" ref="G19">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(A4)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(B4)),"")</f>
         <v/>
       </c>
-      <c r="H19" s="49" t="str">
+      <c r="H19" s="46" t="str">
         <f t="array" ref="H19">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(B4)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(C4)),"")</f>
         <v/>
       </c>
-      <c r="I19" s="50" t="str">
+      <c r="I19" s="47" t="str">
         <f t="array" ref="I19">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(C4)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
@@ -4554,34 +5131,34 @@
         <f>B20&amp;COUNTIF($E$16:E20,E20)</f>
         <v>Paulo Santos1</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="49">
         <v>146.13999999999999</v>
       </c>
       <c r="E20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Paulo SantosSapato Social</v>
       </c>
-      <c r="G20" s="49" t="str">
+      <c r="G20" s="46" t="str">
         <f t="array" ref="G20">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(A5)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(B5)),"")</f>
         <v/>
       </c>
-      <c r="H20" s="49" t="str">
+      <c r="H20" s="46" t="str">
         <f t="array" ref="H20">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(B5)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(C5)),"")</f>
         <v/>
       </c>
-      <c r="I20" s="50" t="str">
+      <c r="I20" s="47" t="str">
         <f t="array" ref="I20">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(C5)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
@@ -4594,34 +5171,34 @@
         <f>B21&amp;COUNTIF($E$16:E21,E21)</f>
         <v>Aline Rosa1</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="49">
         <v>896.56</v>
       </c>
       <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Aline RosaSapato Social</v>
       </c>
-      <c r="G21" s="49" t="str">
+      <c r="G21" s="46" t="str">
         <f t="array" ref="G21">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(A6)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(B6)),"")</f>
         <v/>
       </c>
-      <c r="H21" s="49" t="str">
+      <c r="H21" s="46" t="str">
         <f t="array" ref="H21">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(B6)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(C6)),"")</f>
         <v/>
       </c>
-      <c r="I21" s="50" t="str">
+      <c r="I21" s="47" t="str">
         <f t="array" ref="I21">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(C6)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
@@ -4634,34 +5211,34 @@
         <f>B22&amp;COUNTIF($E$16:E22,E22)</f>
         <v>Leonardo Almeida3</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="49">
         <v>602</v>
       </c>
       <c r="E22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Leonardo AlmeidaSapato Social</v>
       </c>
-      <c r="G22" s="49" t="str">
+      <c r="G22" s="46" t="str">
         <f t="array" ref="G22">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(A7)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(B7)),"")</f>
         <v/>
       </c>
-      <c r="H22" s="49" t="str">
+      <c r="H22" s="46" t="str">
         <f t="array" ref="H22">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(B7)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(C7)),"")</f>
         <v/>
       </c>
-      <c r="I22" s="50" t="str">
+      <c r="I22" s="47" t="str">
         <f t="array" ref="I22">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(C7)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
@@ -4674,34 +5251,34 @@
         <f>B23&amp;COUNTIF($E$16:E23,E23)</f>
         <v>Eliane Moreira2</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="49">
         <v>248.73</v>
       </c>
       <c r="E23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Eliane MoreiraBolsa de Trabalho</v>
       </c>
-      <c r="G23" s="49" t="str">
+      <c r="G23" s="46" t="str">
         <f t="array" ref="G23">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(A8)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(B8)),"")</f>
         <v/>
       </c>
-      <c r="H23" s="49" t="str">
+      <c r="H23" s="46" t="str">
         <f t="array" ref="H23">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(B8)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(C8)),"")</f>
         <v/>
       </c>
-      <c r="I23" s="50" t="str">
+      <c r="I23" s="47" t="str">
         <f t="array" ref="I23">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(C8)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
@@ -4714,34 +5291,34 @@
         <f>B24&amp;COUNTIF($E$16:E24,E24)</f>
         <v>Nicolas Pereira2</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="49">
         <v>116.52</v>
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Nicolas PereiraCamisa Masculina</v>
       </c>
-      <c r="G24" s="49" t="str">
+      <c r="G24" s="46" t="str">
         <f t="array" ref="G24">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(A9)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(B9)),"")</f>
         <v/>
       </c>
-      <c r="H24" s="49" t="str">
+      <c r="H24" s="46" t="str">
         <f t="array" ref="H24">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(B9)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
 COLUMN(C9)),"")</f>
         <v/>
       </c>
-      <c r="I24" s="50" t="str">
+      <c r="I24" s="47" t="str">
         <f t="array" ref="I24">IFERROR(INDEX($A$15:$D$52,
 MATCH($G$13&amp;ROW(C9)&amp;$G$13&amp;$H$13,
 $A$15:$A$52&amp;$B$15:$B$52&amp;$C$15:$C$52,0),
@@ -4754,13 +5331,13 @@
         <f>B25&amp;COUNTIF($E$16:E25,E25)</f>
         <v>Amanda Martins1</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="49">
         <v>59.9</v>
       </c>
       <c r="E25" s="2" t="str">
@@ -4773,13 +5350,13 @@
         <f>B26&amp;COUNTIF($E$16:E26,E26)</f>
         <v>Leonardo Almeida4</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="49">
         <v>46.9</v>
       </c>
       <c r="E26" s="2" t="str">
@@ -4792,13 +5369,13 @@
         <f>B27&amp;COUNTIF($E$16:E27,E27)</f>
         <v>Eliane Moreira3</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="49">
         <v>167.6</v>
       </c>
       <c r="E27" s="2" t="str">
@@ -4811,13 +5388,13 @@
         <f>B28&amp;COUNTIF($E$16:E28,E28)</f>
         <v>Nicolas Pereira3</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="49">
         <v>737.1</v>
       </c>
       <c r="E28" s="2" t="str">
@@ -4830,13 +5407,13 @@
         <f>B29&amp;COUNTIF($E$16:E29,E29)</f>
         <v>Amanda Martins1</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="49">
         <v>111.8</v>
       </c>
       <c r="E29" s="2" t="str">
@@ -4849,13 +5426,13 @@
         <f>B30&amp;COUNTIF($E$16:E30,E30)</f>
         <v>Eliane Moreira1</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="49">
         <v>89.9</v>
       </c>
       <c r="E30" s="2" t="str">
@@ -4868,13 +5445,13 @@
         <f>B31&amp;COUNTIF($E$16:E31,E31)</f>
         <v>Angela Maria1</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="49">
         <v>89.99</v>
       </c>
       <c r="E31" s="2" t="str">
@@ -4887,13 +5464,13 @@
         <f>B32&amp;COUNTIF($E$16:E32,E32)</f>
         <v>Carlos Moreira1</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D32" s="49">
         <v>69.989999999999995</v>
       </c>
       <c r="E32" s="2" t="str">
@@ -4906,13 +5483,13 @@
         <f>B33&amp;COUNTIF($E$16:E33,E33)</f>
         <v>Eliane Moreira2</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="52">
+      <c r="D33" s="49">
         <v>306.8</v>
       </c>
       <c r="E33" s="2" t="str">
@@ -4925,13 +5502,13 @@
         <f>B34&amp;COUNTIF($E$16:E34,E34)</f>
         <v>Nicolas Pereira4</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D34" s="49">
         <v>891.36</v>
       </c>
       <c r="E34" s="2" t="str">
@@ -4944,13 +5521,13 @@
         <f>B35&amp;COUNTIF($E$16:E35,E35)</f>
         <v>Leonardo Almeida1</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="52">
+      <c r="D35" s="49">
         <v>146.13999999999999</v>
       </c>
       <c r="E35" s="2" t="str">
@@ -4963,13 +5540,13 @@
         <f>B36&amp;COUNTIF($E$16:E36,E36)</f>
         <v>Aline Rosa2</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="52">
+      <c r="D36" s="49">
         <v>224.14</v>
       </c>
       <c r="E36" s="2" t="str">
@@ -4982,13 +5559,13 @@
         <f>B37&amp;COUNTIF($E$16:E37,E37)</f>
         <v>Leonardo Almeida2</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="52">
+      <c r="D37" s="49">
         <v>752.5</v>
       </c>
       <c r="E37" s="2" t="str">
@@ -5001,13 +5578,13 @@
         <f>B38&amp;COUNTIF($E$16:E38,E38)</f>
         <v>Eliane Moreira3</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D38" s="49">
         <v>497.46</v>
       </c>
       <c r="E38" s="2" t="str">
@@ -5020,13 +5597,13 @@
         <f>B39&amp;COUNTIF($E$16:E39,E39)</f>
         <v>Nicolas Pereira1</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="52">
+      <c r="D39" s="49">
         <v>349.56</v>
       </c>
       <c r="E39" s="2" t="str">
@@ -5039,13 +5616,13 @@
         <f>B40&amp;COUNTIF($E$16:E40,E40)</f>
         <v>Amanda Martins2</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D40" s="49">
         <v>119.8</v>
       </c>
       <c r="E40" s="2" t="str">
@@ -5058,13 +5635,13 @@
         <f>B41&amp;COUNTIF($E$16:E41,E41)</f>
         <v>Eliane Moreira4</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="52">
+      <c r="D41" s="49">
         <v>93.8</v>
       </c>
       <c r="E41" s="2" t="str">
@@ -5077,13 +5654,13 @@
         <f>B42&amp;COUNTIF($E$16:E42,E42)</f>
         <v>Nicolas Pereira2</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="52">
+      <c r="D42" s="49">
         <v>83.8</v>
       </c>
       <c r="E42" s="2" t="str">
@@ -5096,13 +5673,13 @@
         <f>B43&amp;COUNTIF($E$16:E43,E43)</f>
         <v>Amanda Martins2</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="52">
+      <c r="D43" s="49">
         <v>327.60000000000002</v>
       </c>
       <c r="E43" s="2" t="str">
@@ -5115,13 +5692,13 @@
         <f>B44&amp;COUNTIF($E$16:E44,E44)</f>
         <v>Angela Maria2</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="52">
+      <c r="D44" s="49">
         <v>349.56</v>
       </c>
       <c r="E44" s="2" t="str">
@@ -5134,13 +5711,13 @@
         <f>B45&amp;COUNTIF($E$16:E45,E45)</f>
         <v>Angela Maria3</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="52">
+      <c r="D45" s="49">
         <v>119.8</v>
       </c>
       <c r="E45" s="2" t="str">
@@ -5153,13 +5730,13 @@
         <f>B46&amp;COUNTIF($E$16:E46,E46)</f>
         <v>Carlos Moreira2</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="52">
+      <c r="D46" s="49">
         <v>120</v>
       </c>
       <c r="E46" s="2" t="str">
@@ -5172,13 +5749,13 @@
         <f>B47&amp;COUNTIF($E$16:E47,E47)</f>
         <v>Carlos Moreira3</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="52">
+      <c r="D47" s="49">
         <v>780</v>
       </c>
       <c r="E47" s="2" t="str">
@@ -5191,13 +5768,13 @@
         <f>B48&amp;COUNTIF($E$16:E48,E48)</f>
         <v>Aline Rosa3</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="49">
         <v>297.12</v>
       </c>
       <c r="E48" s="2" t="str">
@@ -5210,13 +5787,13 @@
         <f>B49&amp;COUNTIF($E$16:E49,E49)</f>
         <v>Leonardo Almeida5</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="52">
+      <c r="D49" s="49">
         <v>153.4</v>
       </c>
       <c r="E49" s="2" t="str">
@@ -5229,13 +5806,13 @@
         <f>B50&amp;COUNTIF($E$16:E50,E50)</f>
         <v>Aline Rosa1</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="52">
+      <c r="D50" s="49">
         <v>120</v>
       </c>
       <c r="E50" s="2" t="str">
@@ -5248,13 +5825,13 @@
         <f>B51&amp;COUNTIF($E$16:E51,E51)</f>
         <v>Paulo Santos2</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="52">
+      <c r="D51" s="49">
         <v>655.20000000000005</v>
       </c>
       <c r="E51" s="2" t="str">
@@ -5267,13 +5844,13 @@
         <f>B52&amp;COUNTIF($E$16:E52,E52)</f>
         <v>Paulo Santos3</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="52">
+      <c r="D52" s="49">
         <v>153.4</v>
       </c>
       <c r="E52" s="2" t="str">
@@ -5326,96 +5903,96 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="35" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="D10" s="37"/>
+      <c r="D10" s="35"/>
     </row>
     <row r="11" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="D11" s="37"/>
+      <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="D12" s="37"/>
+      <c r="D12" s="35"/>
     </row>
     <row r="13" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="D13" s="37"/>
+      <c r="D13" s="35"/>
     </row>
     <row r="14" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="D14" s="37"/>
+      <c r="D14" s="35"/>
     </row>
     <row r="15" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="D15" s="37"/>
+      <c r="D15" s="35"/>
     </row>
     <row r="16" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="D16" s="37"/>
+      <c r="D16" s="35"/>
     </row>
     <row r="17" spans="4:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="D17" s="37"/>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="4:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="D18" s="37"/>
+      <c r="D18" s="35"/>
     </row>
     <row r="19" spans="4:4" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="D19" s="37"/>
+      <c r="D19" s="35"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A9">
@@ -5445,18 +6022,18 @@
   <sheetData>
     <row r="3" spans="2:19" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" s="44" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" s="44" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="S4" s="41" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="30.9" x14ac:dyDescent="0.8">
@@ -5464,7 +6041,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>18</v>
@@ -5474,7 +6051,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="30.9" x14ac:dyDescent="0.8">
@@ -5484,7 +6061,7 @@
       <c r="C7" s="10">
         <v>10</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="40">
         <f>C7*VLOOKUP(B7,$G$6:$H$8,2,0)</f>
         <v>120</v>
       </c>
@@ -5504,7 +6081,7 @@
       <c r="C8" s="8">
         <v>20</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="40">
         <f>C8*VLOOKUP(B8,$G$6:$H$8,2,0)</f>
         <v>700</v>
       </c>
@@ -5546,21 +6123,21 @@
   <sheetData>
     <row r="2" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="44" t="s">
-        <v>75</v>
+      <c r="P3" s="41" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2"/>
-      <c r="P4" s="44" t="s">
-        <v>74</v>
+      <c r="P4" s="41" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -5594,8 +6171,8 @@
       <c r="L6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="44" t="s">
-        <v>77</v>
+      <c r="P6" s="41" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -5605,7 +6182,7 @@
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="34" t="str">
+      <c r="D7" s="33" t="str">
         <f>TRIM(IF(ISNUMBER(SEARCH(G$6,$C7)),G$6,"")&amp;" "&amp;
 IF(ISNUMBER(SEARCH(H$6,$C7)),H$6,"")&amp;" "&amp;
 IF(ISNUMBER(SEARCH(I$6,$C7)),I$6,"")&amp;" "&amp;
@@ -5614,7 +6191,7 @@
 IF(ISNUMBER(SEARCH(L$6,$C7)),L$6,""))</f>
         <v>Nicolas Allan</v>
       </c>
-      <c r="E7" s="34" t="str">
+      <c r="E7" s="33" t="str">
         <f>TRIM(IF(ISNUMBER(SEARCH("Rose",$C7)),"Rose,","")&amp;" "&amp;
 IF(ISNUMBER(SEARCH("Nicolas",$C7)),"Nicolas,","")&amp;" "&amp;
 IF(ISNUMBER(SEARCH("Allan",$C7)),"Allan,","")&amp;" "&amp;
@@ -5647,8 +6224,8 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="P7" s="44" t="s">
-        <v>76</v>
+      <c r="P7" s="41" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -5658,7 +6235,7 @@
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="34" t="str">
+      <c r="D8" s="33" t="str">
         <f t="shared" ref="D8:D12" si="1">TRIM(IF(ISNUMBER(SEARCH(G$6,$C8)),G$6,"")&amp;" "&amp;
 IF(ISNUMBER(SEARCH(H$6,$C8)),H$6,"")&amp;" "&amp;
 IF(ISNUMBER(SEARCH(I$6,$C8)),I$6,"")&amp;" "&amp;
@@ -5667,7 +6244,7 @@
 IF(ISNUMBER(SEARCH(L$6,$C8)),L$6,""))</f>
         <v>Ryan</v>
       </c>
-      <c r="E8" s="34" t="str">
+      <c r="E8" s="33" t="str">
         <f t="shared" ref="E8:E12" si="2">TRIM(IF(ISNUMBER(SEARCH("Rose",$C8)),"Rose,","")&amp;" "&amp;
 IF(ISNUMBER(SEARCH("Nicolas",$C8)),"Nicolas,","")&amp;" "&amp;
 IF(ISNUMBER(SEARCH("Allan",$C8)),"Allan,","")&amp;" "&amp;
@@ -5690,11 +6267,11 @@
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="34" t="str">
+      <c r="D9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>Allan Amanda</v>
       </c>
-      <c r="E9" s="34" t="str">
+      <c r="E9" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Allan, Amanda,</v>
       </c>
@@ -5712,11 +6289,11 @@
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="34" t="str">
+      <c r="D10" s="33" t="str">
         <f t="shared" si="1"/>
         <v>Steve</v>
       </c>
-      <c r="E10" s="34" t="str">
+      <c r="E10" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Steve,</v>
       </c>
@@ -5734,11 +6311,11 @@
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="34" t="str">
+      <c r="D11" s="33" t="str">
         <f t="shared" si="1"/>
         <v>Rose</v>
       </c>
-      <c r="E11" s="34" t="str">
+      <c r="E11" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Rose,</v>
       </c>
@@ -5756,11 +6333,11 @@
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="34" t="str">
+      <c r="D12" s="33" t="str">
         <f t="shared" si="1"/>
         <v>Rose Nicolas Allan Steve</v>
       </c>
-      <c r="E12" s="34" t="str">
+      <c r="E12" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Rose, Nicolas, Allan, Steve,</v>
       </c>
@@ -5781,7 +6358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095C8E58-631A-4A0F-A4EC-0567FFABBA26}">
   <dimension ref="B3:S21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -5797,7 +6374,7 @@
   <sheetData>
     <row r="3" spans="2:19" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="26.15" x14ac:dyDescent="0.7">
@@ -5824,8 +6401,8 @@
       <c r="H7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="44" t="s">
-        <v>78</v>
+      <c r="S7" s="41" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="26.15" x14ac:dyDescent="0.7">
@@ -5841,16 +6418,16 @@
       <c r="F8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="34">
         <f t="array" ref="G8">MAX(IF($C$7:$C$21=$F8,$B$7:$B$21))</f>
         <v>45067</v>
       </c>
-      <c r="H8" s="56">
-        <f t="array" ref="H8">INDEX($B$8:$D$21,MATCH($F8&amp;$G8,$C$8:$C$21&amp;$B$8:$B$21,0),3)</f>
-        <v>1300</v>
-      </c>
-      <c r="S8" s="44" t="s">
-        <v>79</v>
+      <c r="H8" s="51" t="e">
+        <f>INDEX($B$8:$D$21,MATCH($F8&amp;$G8,$C$8:$C$21&amp;$B$8:$B$21,0),3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S8" s="41" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="23.15" x14ac:dyDescent="0.6">
@@ -5867,11 +6444,11 @@
       <c r="F9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="34">
         <f t="array" ref="G9">MAX(IF($C$7:$C$21=$F9,$B$7:$B$21))</f>
         <v>45072</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="51">
         <f t="array" ref="H9">INDEX($B$8:$D$21,MATCH($F9&amp;$G9,$C$8:$C$21&amp;$B$8:$B$21,0),3)</f>
         <v>1400</v>
       </c>
@@ -5890,16 +6467,16 @@
       <c r="F10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="34">
         <f t="array" ref="G10">MAX(IF($C$7:$C$21=$F10,$B$7:$B$21))</f>
         <v>45057</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="51">
         <f t="array" ref="H10">INDEX($B$8:$D$21,MATCH($F10&amp;$G10,$C$8:$C$21&amp;$B$8:$B$21,0),3)</f>
         <v>1100</v>
       </c>
-      <c r="S10" s="44" t="s">
-        <v>80</v>
+      <c r="S10" s="41" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="26.15" x14ac:dyDescent="0.7">
@@ -5913,8 +6490,8 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="S11" s="44" t="s">
-        <v>81</v>
+      <c r="S11" s="41" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="23.15" x14ac:dyDescent="0.6">
@@ -5940,7 +6517,7 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G13" s="53"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="2:19" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B14" s="18">
